--- a/Data/Transitions/19091925Translation.xlsx
+++ b/Data/Transitions/19091925Translation.xlsx
@@ -28,7 +28,7 @@
     <t>{1.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.15701727550325684, 837.0: 0.002100902288399068}</t>
+    <t>{486.0: 0.15920630519368856, 837.0: 0.002186026782725736}</t>
   </si>
   <si>
     <t>{3.0: 1.0}</t>
@@ -43,7 +43,7 @@
     <t>{6.0: 1.0}</t>
   </si>
   <si>
-    <t>{7.0: 0.9854496071393928}</t>
+    <t>{7.0: 0.9853027630805409}</t>
   </si>
   <si>
     <t>{8.0: 1.0}</t>
@@ -64,7 +64,7 @@
     <t>{13.0: 0.7259633800658852}</t>
   </si>
   <si>
-    <t>{14.0: 0.9690755208333334}</t>
+    <t>{14.0: 0.9691257718557036}</t>
   </si>
   <si>
     <t>{15.0: 1.0}</t>
@@ -130,7 +130,7 @@
     <t>{60.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.42733454268782284}</t>
+    <t>{834.0: 0.42673645002733873}</t>
   </si>
   <si>
     <t>{62.0: 1.0}</t>
@@ -142,10 +142,10 @@
     <t>{69.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.023259052924791086}</t>
-  </si>
-  <si>
-    <t>{71.0: 0.9914243102162565}</t>
+    <t>{311.0: 0.023413950227830355}</t>
+  </si>
+  <si>
+    <t>{71.0: 0.9914200447649838}</t>
   </si>
   <si>
     <t>{72.0: 1.0}</t>
@@ -166,13 +166,13 @@
     <t>{77.0: 1.0}</t>
   </si>
   <si>
-    <t>{78.0: 0.8613357292602576}</t>
+    <t>{78.0: 0.8719756670814324}</t>
   </si>
   <si>
     <t>{79.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.1492238996385286, 757.0: 0.13017306245297217}</t>
+    <t>{764.0: 0.1490527567751253, 757.0: 0.16313059877416314}</t>
   </si>
   <si>
     <t>{81.0: 1.0}</t>
@@ -190,7 +190,7 @@
     <t>{85.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.39748493443127403}</t>
+    <t>{86.0: 0.39561049492763845}</t>
   </si>
   <si>
     <t>{87.0: 1.0}</t>
@@ -205,7 +205,7 @@
     <t>{90.0: 0.9509332737230356}</t>
   </si>
   <si>
-    <t>{91.0: 1.0, 92.0: 0.0004825682791784487}</t>
+    <t>{91.0: 1.0, 92.0: 0.0004535688708522321}</t>
   </si>
   <si>
     <t>{92.0: 0.9335071707953064}</t>
@@ -226,7 +226,7 @@
     <t>{97.0: 1.0}</t>
   </si>
   <si>
-    <t>{98.0: 0.9199943954042314}</t>
+    <t>{98.0: 0.9189265937810592}</t>
   </si>
   <si>
     <t>{99.0: 1.0}</t>
@@ -244,16 +244,16 @@
     <t>{103.0: 1.0}</t>
   </si>
   <si>
-    <t>{92.0: 0.012229296127601213}</t>
+    <t>{92.0: 0.01225829553592743}</t>
   </si>
   <si>
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.3809666079163851, 86.0: 0.167627732332037}</t>
-  </si>
-  <si>
-    <t>{108.0: 0.9912172052696768, 144.0: 0.008141609952717104}</t>
+    <t>{543.0: 0.3807887096637884, 86.0: 0.16763897270837524}</t>
+  </si>
+  <si>
+    <t>{108.0: 0.9912221471978393, 144.0: 0.008141467939881864}</t>
   </si>
   <si>
     <t>{109.0: 1.0}</t>
@@ -271,10 +271,10 @@
     <t>{141.0: 0.7470256731371321}</t>
   </si>
   <si>
-    <t>{142.0: 0.731822893528802}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9569793200618738}</t>
+    <t>{142.0: 0.7317831753554502}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9569578564997833}</t>
   </si>
   <si>
     <t>{145.0: 1.0}</t>
@@ -283,7 +283,7 @@
     <t>{146.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9168485213334336, 764.0: 0.02364448224537529}</t>
+    <t>{147.0: 0.9109445519019987, 764.0: 0.023617364709880215}</t>
   </si>
   <si>
     <t>{148.0: 1.0}</t>
@@ -301,7 +301,7 @@
     <t>{152.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.6392101731740047}</t>
+    <t>{162.0: 0.6433579685427326}</t>
   </si>
   <si>
     <t>{163.0: 1.0}</t>
@@ -310,7 +310,7 @@
     <t>{164.0: 1.0}</t>
   </si>
   <si>
-    <t>{165.0: 0.9615337347916922}</t>
+    <t>{165.0: 0.9614104302798668}</t>
   </si>
   <si>
     <t>{166.0: 1.0}</t>
@@ -337,7 +337,7 @@
     <t>{173.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 1.0, 502.0: 0.20598512462143895}</t>
+    <t>{174.0: 1.0, 502.0: 0.20775329690244515}</t>
   </si>
   <si>
     <t>{175.0: 1.0}</t>
@@ -349,22 +349,22 @@
     <t>{562.0: 0.3589476967869398}</t>
   </si>
   <si>
-    <t>{178.0: 1.0, 14.0: 0.030924479166666668}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.03254877942077172}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.9674512205792283}</t>
+    <t>{178.0: 1.0, 14.0: 0.03087422814429639}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.02915132042943343}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.9708486795705665}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.6542727589815138}</t>
-  </si>
-  <si>
-    <t>{182.0: 0.15926055109870946}</t>
+    <t>{182.0: 0.653232577665827}</t>
+  </si>
+  <si>
+    <t>{182.0: 0.15973971452560873}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -379,13 +379,13 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.7114100886721801}</t>
+    <t>{204.0: 0.7113991598744435}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
   </si>
   <si>
-    <t>{206.0: 0.8527388535031847, 940.0: 0.4877637130801688}</t>
+    <t>{206.0: 0.8527388535031847, 940.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{207.0: 1.0}</t>
@@ -412,7 +412,7 @@
     <t>{214.0: 1.0}</t>
   </si>
   <si>
-    <t>{897.0: 0.24406536889838756}</t>
+    <t>{897.0: 0.24357767221532678}</t>
   </si>
   <si>
     <t>{217.0: 1.0}</t>
@@ -481,13 +481,16 @@
     <t>{241.0: 1.0}</t>
   </si>
   <si>
+    <t>{242.0: 1.0}</t>
+  </si>
+  <si>
     <t>{243.0: 1.0}</t>
   </si>
   <si>
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.6575552514843174}</t>
+    <t>{246.0: 0.6578074901604715}</t>
   </si>
   <si>
     <t>{247.0: 1.0}</t>
@@ -496,13 +499,13 @@
     <t>{248.0: 1.0}</t>
   </si>
   <si>
-    <t>{249.0: 0.9929750223015165}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.2846212700841622, 144.0: 0.009906792712120634}</t>
-  </si>
-  <si>
-    <t>{251.0: 0.4466893330379997}</t>
+    <t>{249.0: 0.9929308797127468}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.2844347351174222, 144.0: 0.009906457384172054}</t>
+  </si>
+  <si>
+    <t>{251.0: 0.46403865886525403}</t>
   </si>
   <si>
     <t>{252.0: 1.0}</t>
@@ -541,13 +544,13 @@
     <t>{263.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.8354978354978355, 843.0: 0.05275609848056404}</t>
+    <t>{264.0: 0.832411620581029, 843.0: 0.05373114264778395}</t>
   </si>
   <si>
     <t>{265.0: 0.6807426881367072}</t>
   </si>
   <si>
-    <t>{834.0: 0.04678007418275025, 887.0: 0.1831615433731643}</t>
+    <t>{834.0: 0.04740869776067081, 887.0: 0.18437241759250758}</t>
   </si>
   <si>
     <t>{268.0: 1.0}</t>
@@ -568,16 +571,16 @@
     <t>{274.0: 1.0}</t>
   </si>
   <si>
-    <t>{686.0: 0.3946098826756189}</t>
-  </si>
-  <si>
-    <t>{276.0: 0.6655472862588492}</t>
+    <t>{686.0: 0.39461948541510167}</t>
+  </si>
+  <si>
+    <t>{276.0: 0.6650608980185421}</t>
   </si>
   <si>
     <t>{277.0: 0.7255767301905717}</t>
   </si>
   <si>
-    <t>{278.0: 1.0, 767.0: 0.007574832009773977}</t>
+    <t>{278.0: 1.0, 767.0: 0.006935123042505592}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -589,7 +592,7 @@
     <t>{281.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 0.18646668991977677}</t>
+    <t>{182.0: 0.18702770780856423}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -601,7 +604,7 @@
     <t>{285.0: 1.0}</t>
   </si>
   <si>
-    <t>{909.0: 0.15746955604131482}</t>
+    <t>{909.0: 0.1599143866049324}</t>
   </si>
   <si>
     <t>{287.0: 1.0}</t>
@@ -610,13 +613,13 @@
     <t>{288.0: 1.0}</t>
   </si>
   <si>
-    <t>{289.0: 0.8378034656314187, 730.0: 0.2998825373404282}</t>
+    <t>{289.0: 0.8379762146830797, 730.0: 0.30062820449168093}</t>
   </si>
   <si>
     <t>{290.0: 1.0}</t>
   </si>
   <si>
-    <t>{291.0: 0.9315335374338992}</t>
+    <t>{291.0: 0.9313041049986037}</t>
   </si>
   <si>
     <t>{292.0: 1.0, 139.0: 0.07253950479034466}</t>
@@ -637,7 +640,7 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.5243254148187214}</t>
+    <t>{298.0: 0.5212564069352182}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -652,7 +655,7 @@
     <t>{302.0: 1.0}</t>
   </si>
   <si>
-    <t>{303.0: 0.9137777777777778}</t>
+    <t>{303.0: 0.9136242208370436}</t>
   </si>
   <si>
     <t>{304.0: 1.0}</t>
@@ -661,7 +664,7 @@
     <t>{305.0: 1.0}</t>
   </si>
   <si>
-    <t>{142.0: 0.26817710647119797, 909.0: 0.40590425741616165}</t>
+    <t>{142.0: 0.26821682464454977, 909.0: 0.4059227876252623}</t>
   </si>
   <si>
     <t>{307.0: 1.0}</t>
@@ -670,13 +673,13 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.01907822518424724}</t>
+    <t>{309.0: 1.0, 204.0: 0.019089153981983964}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: 0.9767409470752089, 917.0: 0.024578971324533454}</t>
+    <t>{311.0: 0.9765860497721697, 917.0: 0.024578971324533454}</t>
   </si>
   <si>
     <t>{313.0: 1.0}</t>
@@ -700,19 +703,16 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{321.0: 1.0}</t>
   </si>
   <si>
-    <t>{398.0: 1.0, 98.0: 0.08000560459576853}</t>
+    <t>{398.0: 1.0, 98.0: 0.0810734062189408}</t>
   </si>
   <si>
     <t>{399.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 1.0, 897.0: 0.017055178518737092}</t>
+    <t>{400.0: 1.0, 897.0: 0.016870001751211255}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
@@ -724,7 +724,7 @@
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.9902515215166694}</t>
+    <t>{404.0: 0.9902331102957047}</t>
   </si>
   <si>
     <t>{405.0: 1.0}</t>
@@ -775,7 +775,7 @@
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{423.0: 0.9963219385547382}</t>
+    <t>{423.0: 0.9963346269943941}</t>
   </si>
   <si>
     <t>{424.0: 1.0}</t>
@@ -799,10 +799,10 @@
     <t>{432.0: 1.0}</t>
   </si>
   <si>
-    <t>{433.0: 0.991723641597697}</t>
-  </si>
-  <si>
-    <t>{434.0: 0.9806678383128296}</t>
+    <t>{433.0: 0.9916727009413469}</t>
+  </si>
+  <si>
+    <t>{434.0: 0.9826452800420721}</t>
   </si>
   <si>
     <t>{435.0: 1.0}</t>
@@ -811,7 +811,7 @@
     <t>{436.0: 1.0}</t>
   </si>
   <si>
-    <t>{162.0: 0.36078982682599525}</t>
+    <t>{162.0: 0.35664203145726736}</t>
   </si>
   <si>
     <t>{438.0: 1.0}</t>
@@ -823,19 +823,19 @@
     <t>{440.0: 1.0}</t>
   </si>
   <si>
-    <t>{441.0: 1.0, 782.0: 0.006252227047149218}</t>
+    <t>{441.0: 1.0, 782.0: 0.006393517532387943}</t>
   </si>
   <si>
     <t>{442.0: 1.0}</t>
   </si>
   <si>
-    <t>{443.0: 1.0, 291.0: 0.06846646256610076}</t>
+    <t>{443.0: 1.0, 291.0: 0.06869589500139626}</t>
   </si>
   <si>
     <t>{475.0: 1.0}</t>
   </si>
   <si>
-    <t>{476.0: 0.841880929465145}</t>
+    <t>{476.0: 0.8402999583391195}</t>
   </si>
   <si>
     <t>{477.0: 1.0}</t>
@@ -850,7 +850,7 @@
     <t>{480.0: 1.0}</t>
   </si>
   <si>
-    <t>{481.0: 0.9938574938574939}</t>
+    <t>{481.0: 0.9938423645320197}</t>
   </si>
   <si>
     <t>{431.0: 0.1544172726317702}</t>
@@ -865,7 +865,7 @@
     <t>{485.0: 1.0}</t>
   </si>
   <si>
-    <t>{486.0: 0.5247579841756855, 837.0: 0.0070212990658312146}</t>
+    <t>{486.0: 0.5225689544852539, 837.0: 0.007175279452255245}</t>
   </si>
   <si>
     <t>{487.0: 1.0}</t>
@@ -880,25 +880,25 @@
     <t>{490.0: 1.0}</t>
   </si>
   <si>
-    <t>{491.0: 1.0, 492.0: 0.011442530213422474}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9885574697865775}</t>
-  </si>
-  <si>
-    <t>{493.0: 0.9920582395764395, 108.0: 0.008713043878725625, 144.0: 7.156676093227567e-05}</t>
+    <t>{491.0: 1.0, 492.0: 0.011577235772357723}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9884227642276423}</t>
+  </si>
+  <si>
+    <t>{493.0: 0.9920826918847592, 108.0: 0.008708355836935765, 144.0: 7.152665026293531e-05}</t>
   </si>
   <si>
     <t>{494.0: 1.0}</t>
   </si>
   <si>
-    <t>{495.0: 0.9301775147928995}</t>
+    <t>{495.0: 0.9292226487523992}</t>
   </si>
   <si>
     <t>{496.0: 1.0}</t>
   </si>
   <si>
-    <t>{497.0: 0.967200526546731}</t>
+    <t>{497.0: 0.9670759235809062}</t>
   </si>
   <si>
     <t>{498.0: 1.0}</t>
@@ -907,13 +907,13 @@
     <t>{499.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.22250535389953646}</t>
+    <t>{277.0: 0.22161110692129385}</t>
   </si>
   <si>
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 0.794014875378561}</t>
+    <t>{502.0: 0.7922467030975547}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
@@ -946,13 +946,13 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.6162182743238052}</t>
-  </si>
-  <si>
-    <t>{535.0: 1.0, 71.0: 0.008575689783743476}</t>
-  </si>
-  <si>
-    <t>{604.0: 0.8551437537104571, 837.0: 0.03639104034620442}</t>
+    <t>{534.0: 0.6365518934659287}</t>
+  </si>
+  <si>
+    <t>{535.0: 1.0, 71.0: 0.008579955235016165}</t>
+  </si>
+  <si>
+    <t>{604.0: 0.8534475447375116, 837.0: 0.03727082234591006}</t>
   </si>
   <si>
     <t>{537.0: 1.0}</t>
@@ -970,7 +970,7 @@
     <t>{542.0: 1.0}</t>
   </si>
   <si>
-    <t>{543.0: 0.619033392083615}</t>
+    <t>{543.0: 0.6192112903362116}</t>
   </si>
   <si>
     <t>{544.0: 1.0}</t>
@@ -1024,10 +1024,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.8666388908655677}</t>
-  </si>
-  <si>
-    <t>{581.0: 0.7153787299158378, 144.0: 0.024900137596324715, 303.0: 0.08622222222222223}</t>
+    <t>{580.0: 0.8662967447652107}</t>
+  </si>
+  <si>
+    <t>{581.0: 0.7155652648825779, 144.0: 0.024922120708030387, 303.0: 0.08637577916295637}</t>
   </si>
   <si>
     <t>{582.0: 1.0}</t>
@@ -1039,7 +1039,7 @@
     <t>{584.0: 1.0}</t>
   </si>
   <si>
-    <t>{585.0: 1.0, 434.0: 0.019332161687170474}</t>
+    <t>{585.0: 1.0, 434.0: 0.017354719957927953}</t>
   </si>
   <si>
     <t>{586.0: 1.0}</t>
@@ -1066,7 +1066,7 @@
     <t>{595.0: 1.0}</t>
   </si>
   <si>
-    <t>{276.0: 0.3344527137411508}</t>
+    <t>{276.0: 0.33493910198145793}</t>
   </si>
   <si>
     <t>{597.0: 1.0}</t>
@@ -1075,7 +1075,7 @@
     <t>{598.0: 1.0}</t>
   </si>
   <si>
-    <t>{599.0: 0.9974362261248558}</t>
+    <t>{599.0: 0.9973621735689792}</t>
   </si>
   <si>
     <t>{600.0: 1.0}</t>
@@ -1090,7 +1090,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.14485624628954288, 837.0: 0.006164424963931088, 922.0: 0.018158236057068743}</t>
+    <t>{604.0: 0.14655245526248833, 837.0: 0.006400077612415044, 922.0: 0.018158236057068743}</t>
   </si>
   <si>
     <t>{605.0: 1.0}</t>
@@ -1120,7 +1120,7 @@
     <t>{613.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.8586594139322689}</t>
+    <t>{615.0: 0.8586346086346086}</t>
   </si>
   <si>
     <t>{616.0: 1.0}</t>
@@ -1129,7 +1129,7 @@
     <t>{617.0: 1.0}</t>
   </si>
   <si>
-    <t>{246.0: 0.28258191672825816}</t>
+    <t>{246.0: 0.2823732151649434}</t>
   </si>
   <si>
     <t>{619.0: 1.0}</t>
@@ -1171,7 +1171,7 @@
     <t>{629.0: 0.6539283171136957}</t>
   </si>
   <si>
-    <t>{251.0: 0.5533106669620003}</t>
+    <t>{251.0: 0.535961341134746}</t>
   </si>
   <si>
     <t>{633.0: 1.0}</t>
@@ -1201,7 +1201,7 @@
     <t>{682.0: 1.0}</t>
   </si>
   <si>
-    <t>{615.0: 0.14134058606773117, 698.0: 0.023236260796453412, 751.0: 0.18454837230628152}</t>
+    <t>{615.0: 0.14136539136539136, 698.0: 0.02323803699740101, 751.0: 0.18454837230628152}</t>
   </si>
   <si>
     <t>{684.0: 1.0}</t>
@@ -1234,10 +1234,10 @@
     <t>{693.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.434887333236689, 165.0: 0.03846626520830773, 433.0: 0.008276358402302987}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.10551084435554689, 857.0: 0.06778087279480037}</t>
+    <t>{86.0: 0.4367505323639863, 165.0: 0.03858956972013315, 433.0: 0.00832729905865315}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.10678805148986302, 857.0: 0.06782585611892752}</t>
   </si>
   <si>
     <t>{696.0: 1.0}</t>
@@ -1246,7 +1246,7 @@
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.9767637392035465}</t>
+    <t>{698.0: 0.976761963002599}</t>
   </si>
   <si>
     <t>{700.0: 1.0}</t>
@@ -1261,7 +1261,7 @@
     <t>{703.0: 1.0}</t>
   </si>
   <si>
-    <t>{704.0: 1.0, 481.0: 0.006142506142506142}</t>
+    <t>{704.0: 1.0, 481.0: 0.006157635467980296}</t>
   </si>
   <si>
     <t>{705.0: 1.0}</t>
@@ -1276,16 +1276,16 @@
     <t>{729.0: 1.0}</t>
   </si>
   <si>
-    <t>{730.0: 0.7001174626595719, 289.0: 0.16219653436858122}</t>
-  </si>
-  <si>
-    <t>{731.0: 0.8584500055120714}</t>
+    <t>{730.0: 0.6993717955083192, 289.0: 0.16202378531692033}</t>
+  </si>
+  <si>
+    <t>{731.0: 0.8836851164054715}</t>
   </si>
   <si>
     <t>{732.0: 1.0}</t>
   </si>
   <si>
-    <t>{733.0: 1.0, 147.0: 0.08315147866656633}</t>
+    <t>{733.0: 1.0, 147.0: 0.08905544809800128}</t>
   </si>
   <si>
     <t>{888.0: 0.2845953002610966}</t>
@@ -1309,7 +1309,7 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 1.0, 90.0: 0.03364256175254275, 789.0: 0.001348799568384138, 246.0: 0.004715576703282075}</t>
+    <t>{741.0: 1.0, 90.0: 0.03364256175254275, 789.0: 0.0013518385003604902, 246.0: 0.004712142366176076}</t>
   </si>
   <si>
     <t>{758.0: 0.11983160427003459}</t>
@@ -1330,7 +1330,7 @@
     <t>{748.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.14699280494761358, 476.0: 0.15811907053485494, 534.0: 0.07182066865255085}</t>
+    <t>{298.0: 0.14877215057145854, 476.0: 0.15970004166088042, 534.0: 0.073841908987267}</t>
   </si>
   <si>
     <t>{750.0: 1.0}</t>
@@ -1339,7 +1339,7 @@
     <t>{751.0: 0.8154516276937185}</t>
   </si>
   <si>
-    <t>{580.0: 0.13336110913443233}</t>
+    <t>{580.0: 0.1337032552347893}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1354,7 +1354,7 @@
     <t>{756.0: 1.0}</t>
   </si>
   <si>
-    <t>{757.0: 0.8698269375470279}</t>
+    <t>{757.0: 0.8368694012258369}</t>
   </si>
   <si>
     <t>{758.0: 0.7042549992482333}</t>
@@ -1363,10 +1363,10 @@
     <t>{759.0: 1.0}</t>
   </si>
   <si>
-    <t>{760.0: 1.0, 761.0: 0.0015321154979375368}</t>
-  </si>
-  <si>
-    <t>{761.0: 0.9984678845020625}</t>
+    <t>{760.0: 1.0, 761.0: 0.0015297717109908214}</t>
+  </si>
+  <si>
+    <t>{761.0: 0.9984702282890092}</t>
   </si>
   <si>
     <t>{762.0: 1.0}</t>
@@ -1375,7 +1375,7 @@
     <t>{763.0: 1.0}</t>
   </si>
   <si>
-    <t>{764.0: 0.8271316181160961}</t>
+    <t>{764.0: 0.8273298785149945}</t>
   </si>
   <si>
     <t>{765.0: 1.0}</t>
@@ -1384,7 +1384,7 @@
     <t>{766.0: 1.0}</t>
   </si>
   <si>
-    <t>{767.0: 0.9924251679902261}</t>
+    <t>{767.0: 0.9930648769574945}</t>
   </si>
   <si>
     <t>{768.0: 1.0}</t>
@@ -1399,7 +1399,7 @@
     <t>{771.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 1.0, 493.0: 0.007941760423560556, 108.0: 6.975085159753668e-05, 144.0: 5.729160314791915e-07}</t>
+    <t>{772.0: 1.0, 493.0: 0.007917308115240818, 108.0: 6.949696522493627e-05, 144.0: 5.708178695335117e-07}</t>
   </si>
   <si>
     <t>{773.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{781.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.7409374650734597}</t>
+    <t>{782.0: 0.7360736129578894}</t>
   </si>
   <si>
     <t>{783.0: 1.0}</t>
@@ -1441,13 +1441,13 @@
     <t>{204.0: 0.2695116861435726}</t>
   </si>
   <si>
-    <t>{277.0: 0.05191791590989184}</t>
+    <t>{277.0: 0.05281216288813442}</t>
   </si>
   <si>
     <t>{788.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9986512004316158, 246.0: 0.05514725508414239}</t>
+    <t>{789.0: 0.9986481614996395, 246.0: 0.05510715230840897}</t>
   </si>
   <si>
     <t>{831.0: 1.0}</t>
@@ -1459,7 +1459,7 @@
     <t>{833.0: 1.0}</t>
   </si>
   <si>
-    <t>{834.0: 0.5258853831294269}</t>
+    <t>{834.0: 0.5258548522119905}</t>
   </si>
   <si>
     <t>{835.0: 1.0}</t>
@@ -1468,10 +1468,10 @@
     <t>{836.0: 1.0}</t>
   </si>
   <si>
-    <t>{837.0: 0.9483223333356342, 486.0: 0.3182247403210576}</t>
-  </si>
-  <si>
-    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036780614452617912}</t>
+    <t>{837.0: 0.9469677938066939, 486.0: 0.3182247403210576}</t>
+  </si>
+  <si>
+    <t>{838.0: 1.0, 19.0: 0.13507462686567165, 423.0: 0.0036653730056058647}</t>
   </si>
   <si>
     <t>{839.0: 1.0}</t>
@@ -1486,7 +1486,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{843.0: 0.9472439015194359, 264.0: 0.1645021645021645}</t>
+    <t>{843.0: 0.9462688573522161, 264.0: 0.16758837941897095}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1507,7 +1507,7 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{851.0: 1.0, 7.0: 0.014550392860607237}</t>
+    <t>{851.0: 1.0, 7.0: 0.014697236919459141}</t>
   </si>
   <si>
     <t>{852.0: 1.0}</t>
@@ -1525,7 +1525,7 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 0.9322191272051996}</t>
+    <t>{857.0: 0.9321741438810724}</t>
   </si>
   <si>
     <t>{858.0: 1.0}</t>
@@ -1552,7 +1552,7 @@
     <t>{886.0: 1.0}</t>
   </si>
   <si>
-    <t>{887.0: 0.8168384566268357}</t>
+    <t>{887.0: 0.8156275824074924}</t>
   </si>
   <si>
     <t>{888.0: 0.7154046997389034}</t>
@@ -1579,10 +1579,10 @@
     <t>{895.0: 1.0}</t>
   </si>
   <si>
-    <t>{896.0: 1.0, 897.0: 0.02499643873816452}</t>
-  </si>
-  <si>
-    <t>{897.0: 0.7138830138447109}</t>
+    <t>{896.0: 1.0, 897.0: 0.024944406380148505}</t>
+  </si>
+  <si>
+    <t>{897.0: 0.7146079196533135}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1591,10 +1591,10 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.044733262807919, 930.0: 0.10324494606396221, 404.0: 0.00974847848333064}</t>
-  </si>
-  <si>
-    <t>{909.0: 0.43662618654252366}</t>
+    <t>{782.0: 0.044733262807919, 930.0: 0.10356293822099828, 404.0: 0.009766889704295272}</t>
+  </si>
+  <si>
+    <t>{909.0: 0.43416282576980525}</t>
   </si>
   <si>
     <t>{910.0: 0.8165218347816522}</t>
@@ -1612,7 +1612,7 @@
     <t>{915.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.31196105702364396}</t>
+    <t>{534.0: 0.2896061975468044}</t>
   </si>
   <si>
     <t>{917.0: 0.84180271253553}</t>
@@ -1621,13 +1621,13 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.2231709358781182}</t>
+    <t>{298.0: 0.2231833910034602}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
   </si>
   <si>
-    <t>{921.0: 1.0, 686.0: 0.002039538364045994}</t>
+    <t>{921.0: 1.0, 686.0: 0.00202993562456328}</t>
   </si>
   <si>
     <t>{922.0: 0.9818417639429312}</t>
@@ -1648,10 +1648,10 @@
     <t>{927.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 1.0, 930.0: 0.27888247642727526}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.6178725775087625}</t>
+    <t>{929.0: 1.0, 930.0: 0.28714526475970836}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.6092917970192934}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1675,13 +1675,13 @@
     <t>{937.0: 1.0}</t>
   </si>
   <si>
-    <t>{910.0: 0.1834781652183478, 497.0: 0.03279947345326898, 731.0: 0.14154999448792857}</t>
+    <t>{910.0: 0.1834781652183478, 497.0: 0.03292407641909376, 731.0: 0.11631488359452849}</t>
   </si>
   <si>
     <t>{13.0: 0.27403661993411477}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.1472611464968153}</t>
+    <t>{940.0: 0.49782797567332754, 206.0: 0.1472611464968153}</t>
   </si>
   <si>
     <t>{941.0: 1.0}</t>
@@ -1714,7 +1714,7 @@
     <t>{977.0: 1.0}</t>
   </si>
   <si>
-    <t>{782.0: 0.20807704507147204}</t>
+    <t>{782.0: 0.21279960670180362}</t>
   </si>
   <si>
     <t>{979.0: 1.0}</t>
@@ -1726,16 +1726,16 @@
     <t>{981.0: 1.0, 431.0: 0.14127371782829232}</t>
   </si>
   <si>
-    <t>{989.0: 1.0, 249.0: 0.007024977698483497, 495.0: 0.06982248520710059}</t>
-  </si>
-  <si>
-    <t>{990.0: 1.0, 599.0: 0.0025637738751442124}</t>
+    <t>{989.0: 1.0, 249.0: 0.007069120287253142, 495.0: 0.07077735124760076}</t>
+  </si>
+  <si>
+    <t>{990.0: 1.0, 599.0: 0.002637826431020839}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
   </si>
   <si>
-    <t>{34.0: 0.41697971450037563, 78.0: 0.13866427073974244}</t>
+    <t>{34.0: 0.41697971450037563, 78.0: 0.12802433291856768}</t>
   </si>
   <si>
     <t>{999.0: 1.0}</t>
@@ -1798,7 +1798,7 @@
     <t>{543.0: 0.6716403502870428, 86.0: 0.3283596497129573}</t>
   </si>
   <si>
-    <t>{108.0: 0.9879188511511285, 144.0: 0.012081148848871666}</t>
+    <t>{108.0: 0.9879188511511283, 144.0: 0.012081148848871666}</t>
   </si>
   <si>
     <t>{139.0: 1.0}</t>
@@ -1813,7 +1813,7 @@
     <t>{144.0: 1.0}</t>
   </si>
   <si>
-    <t>{147.0: 0.9583988028432472, 764.0: 0.04160119715675272}</t>
+    <t>{147.0: 0.9583988028432471, 764.0: 0.041601197156752714}</t>
   </si>
   <si>
     <t>{162.0: 1.0}</t>
@@ -1822,13 +1822,13 @@
     <t>{165.0: 1.0}</t>
   </si>
   <si>
-    <t>{174.0: 0.5269650010097836, 502.0: 0.47303499899021645}</t>
+    <t>{174.0: 0.529134601041196, 502.0: 0.470865398958804}</t>
   </si>
   <si>
     <t>{562.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9924042536179739, 14.0: 0.007595746382026066}</t>
+    <t>{178.0: 0.9924042536179737, 14.0: 0.007595746382026066}</t>
   </si>
   <si>
     <t>{179.0: 0.9123261843035586, 180.0: 0.0876738156964412}</t>
@@ -1867,7 +1867,7 @@
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{264.0: 0.9789285950194863, 843.0: 0.0210714049805139}</t>
+    <t>{264.0: 0.978928595019486, 843.0: 0.0210714049805139}</t>
   </si>
   <si>
     <t>{834.0: 0.28869996457669145, 887.0: 0.7113000354233086}</t>
@@ -1894,7 +1894,7 @@
     <t>{291.0: 1.0}</t>
   </si>
   <si>
-    <t>{292.0: 0.7970762269404803, 139.0: 0.20292377305951967}</t>
+    <t>{292.0: 0.7970762269404804, 139.0: 0.20292377305951967}</t>
   </si>
   <si>
     <t>{298.0: 1.0}</t>
@@ -1972,13 +1972,13 @@
     <t>{535.0: 0.9934522679825394, 71.0: 0.006547732017460619}</t>
   </si>
   <si>
-    <t>{604.0: 0.8182233178124715, 837.0: 0.18177668218752852}</t>
+    <t>{604.0: 0.8183062602664717, 837.0: 0.18169373973352793}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
   </si>
   <si>
-    <t>{564.0: 0.9223519621587967, 565.0: 0.07764803784120333}</t>
+    <t>{564.0: 0.9246077855267296, 565.0: 0.07539221447327048}</t>
   </si>
   <si>
     <t>{565.0: 1.0}</t>
@@ -1999,7 +1999,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.7620095020848972, 837.0: 0.169288207838767, 922.0: 0.06870229007633588}</t>
+    <t>{604.0: 0.7626932134522454, 837.0: 0.1693456214992105, 922.0: 0.06796116504854369}</t>
   </si>
   <si>
     <t>{615.0: 1.0}</t>
@@ -2020,7 +2020,7 @@
     <t>{691.0: 1.0}</t>
   </si>
   <si>
-    <t>{86.0: 0.948814149805708, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
+    <t>{86.0: 0.9488141498057081, 165.0: 0.04194023850998258, 433.0: 0.00924561168430926}</t>
   </si>
   <si>
     <t>{298.0: 0.7904879048790487, 857.0: 0.2095120951209512}</t>
@@ -2035,7 +2035,7 @@
     <t>{704.0: 0.9874529485570891, 481.0: 0.012547051442910916}</t>
   </si>
   <si>
-    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624017}</t>
+    <t>{730.0: 0.8502549837737599, 289.0: 0.14974501622624015}</t>
   </si>
   <si>
     <t>{731.0: 1.0}</t>
@@ -2053,16 +2053,16 @@
     <t>{741.0: 0.885958315311391, 90.0: 0.09275598362042739, 789.0: 0.0044006937901610544, 246.0: 0.016885007278020378}</t>
   </si>
   <si>
-    <t>{746.0: 0.989985462768535, 691.0: 0.01001453723146503}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395054, 534.0: 0.19648093841642228}</t>
+    <t>{746.0: 0.9899854627685347, 691.0: 0.01001453723146503}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.5626309174696271, 476.0: 0.24088814411395057, 534.0: 0.19648093841642228}</t>
   </si>
   <si>
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{754.0: 0.9200087710787178, 917.0: 0.07999122892128212}</t>
+    <t>{754.0: 0.8492529563266306, 917.0: 0.15074704367336975}</t>
   </si>
   <si>
     <t>{757.0: 1.0}</t>
@@ -2080,7 +2080,7 @@
     <t>{767.0: 1.0}</t>
   </si>
   <si>
-    <t>{772.0: 0.9882429784454605, 493.0: 0.011552824787393206, 108.0: 0.00020172983560795796, 144.0: 2.46693153835297e-06}</t>
+    <t>{772.0: 0.9882429784454605, 493.0: 0.011552824787393208, 108.0: 0.00020172983560795793, 144.0: 2.46693153835297e-06}</t>
   </si>
   <si>
     <t>{782.0: 1.0}</t>
@@ -2089,13 +2089,13 @@
     <t>{785.0: 1.0}</t>
   </si>
   <si>
-    <t>{789.0: 0.9435422883765255, 246.0: 0.05645771162347449}</t>
-  </si>
-  <si>
-    <t>{837.0: 0.9689657749414813, 486.0: 0.031034225058518633}</t>
-  </si>
-  <si>
-    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200547}</t>
+    <t>{789.0: 0.94360671992941, 246.0: 0.05639328007058986}</t>
+  </si>
+  <si>
+    <t>{837.0: 0.9689657749414811, 486.0: 0.031034225058518633}</t>
+  </si>
+  <si>
+    <t>{838.0: 0.9032978861255628, 19.0: 0.08895370913423661, 423.0: 0.007748404740200546}</t>
   </si>
   <si>
     <t>{843.0: 0.7101712767157247, 264.0: 0.2898287232842753}</t>
@@ -2116,7 +2116,7 @@
     <t>{896.0: 0.6231633535004322, 897.0: 0.37683664649956783}</t>
   </si>
   <si>
-    <t>{782.0: 0.11011414486022413, 930.0: 0.8573483060191543, 404.0: 0.03253754912062153}</t>
+    <t>{782.0: 0.11021464052247715, 930.0: 0.8574692422575381, 404.0: 0.032316117219984695}</t>
   </si>
   <si>
     <t>{910.0: 1.0}</t>
@@ -2143,7 +2143,7 @@
     <t>{910.0: 0.49665686012302757, 497.0: 0.15993581171436214, 731.0: 0.3434073281626103}</t>
   </si>
   <si>
-    <t>{940.0: 0.5122362869198313, 206.0: 0.4877637130801689}</t>
+    <t>{940.0: 0.4978279756733277, 206.0: 0.5021720243266724}</t>
   </si>
   <si>
     <t>{973.0: 1.0}</t>
@@ -2152,7 +2152,7 @@
     <t>{976.0: 1.0}</t>
   </si>
   <si>
-    <t>{981.0: 0.5954814416352878, 431.0: 0.4045185583647122}</t>
+    <t>{981.0: 0.7119877441593259, 431.0: 0.288012255840674}</t>
   </si>
   <si>
     <t>{989.0: 0.9567945932898866, 249.0: 0.007603186097031137, 495.0: 0.035602220613082304}</t>
@@ -4210,7 +4210,7 @@
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4221,7 +4221,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4232,29 +4232,29 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
       </c>
       <c r="C156" t="s">
-        <v>611</v>
+        <v>157</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>158</v>
+        <v>611</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -4265,51 +4265,51 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
       </c>
       <c r="C159" t="s">
-        <v>612</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>614</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4331,40 +4331,40 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
       </c>
       <c r="C165" t="s">
-        <v>615</v>
+        <v>166</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
       </c>
       <c r="C166" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
       </c>
       <c r="C167" t="s">
-        <v>168</v>
+        <v>616</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4386,7 +4386,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4397,7 +4397,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4408,7 +4408,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4419,7 +4419,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4430,51 +4430,51 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>617</v>
+        <v>175</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
       </c>
       <c r="C175" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
       </c>
       <c r="C176" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
       </c>
       <c r="C177" t="s">
-        <v>178</v>
+        <v>618</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4485,7 +4485,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4496,7 +4496,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4518,7 +4518,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4529,62 +4529,62 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>619</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
       </c>
       <c r="C186" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>188</v>
+        <v>622</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4595,7 +4595,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4606,29 +4606,29 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
       </c>
       <c r="C190" t="s">
-        <v>607</v>
+        <v>191</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
       </c>
       <c r="C191" t="s">
-        <v>192</v>
+        <v>607</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4650,29 +4650,29 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
       </c>
       <c r="C194" t="s">
-        <v>623</v>
+        <v>195</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
       </c>
       <c r="C195" t="s">
-        <v>196</v>
+        <v>623</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4683,84 +4683,84 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>624</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>199</v>
+        <v>624</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>625</v>
+        <v>200</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
       </c>
       <c r="C200" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>202</v>
+        <v>626</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>590</v>
+        <v>203</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
       </c>
       <c r="C203" t="s">
-        <v>204</v>
+        <v>590</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4782,29 +4782,29 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>627</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>208</v>
+        <v>627</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4837,29 +4837,29 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>628</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
       </c>
       <c r="C212" t="s">
-        <v>213</v>
+        <v>628</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4870,29 +4870,29 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
       </c>
       <c r="C214" t="s">
-        <v>629</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
       </c>
       <c r="C215" t="s">
-        <v>216</v>
+        <v>629</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4903,51 +4903,51 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
       </c>
       <c r="C217" t="s">
-        <v>630</v>
+        <v>218</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>219</v>
+        <v>630</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>631</v>
+        <v>220</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
       </c>
       <c r="C220" t="s">
-        <v>221</v>
+        <v>631</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4958,7 +4958,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4969,7 +4969,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4980,7 +4980,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -5002,7 +5002,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
